--- a/data/trans_dic/P36B_4_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36B_4_R-Estudios-trans_dic.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,34 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,6 +520,15 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -506,31 +543,85 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -542,6 +633,15 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -556,15 +656,60 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>53,39%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>69,32%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>59,11%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>79,02%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>60,13%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>77,22%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>64,74%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>81,97%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>57,17%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>73,89%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>62,32%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>80,81%</t>
         </is>
@@ -579,15 +724,60 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>50,5; 56,49</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>66,04; 72,21</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>55,45; 62,51</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>75,7; 82,31</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>57,44; 62,84</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>74,85; 79,53</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>61,5; 67,78</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>79,63; 83,9</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>55,1; 59,08</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>71,78; 75,59</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>59,87; 64,6</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
         <is>
           <t>78,98; 82,71</t>
         </is>
@@ -606,15 +796,60 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>43,29%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>56,1%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>51,03%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>74,74%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>52,09%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>60,97%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>55,16%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>74,99%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>47,55%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>58,39%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>53,05%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>74,87%</t>
         </is>
@@ -629,15 +864,60 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>40,84; 45,74</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>53,65; 58,22</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>48,9; 53,31</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>72,23; 77,3</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>49,63; 54,6</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>58,57; 63,25</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>52,92; 57,27</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>62,16; 79,42</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>45,56; 49,12</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>56,65; 59,97</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>51,27; 54,54</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
         <is>
           <t>68,44; 77,26</t>
         </is>
@@ -656,15 +936,60 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>48,81%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>55,04%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>61,0%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>78,7%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>56,44%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>67,55%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>63,62%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>79,27%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>52,34%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>61,15%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>62,31%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>78,99%</t>
         </is>
@@ -679,15 +1004,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>44,29; 53,18</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>50,19; 59,62</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>56,39; 65,35</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>75,13; 82,24</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>51,65; 60,88</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>62,82; 71,76</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>59,64; 67,93</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>75,9; 82,02</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>49,09; 55,59</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>57,52; 64,53</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>59,19; 65,11</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>76,54; 81,09</t>
         </is>
@@ -706,15 +1076,60 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>47,4%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>59,71%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>54,45%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>76,22%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>55,83%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>67,94%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>59,18%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>77,33%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>51,68%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>63,9%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>56,87%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>76,81%</t>
         </is>
@@ -729,15 +1144,60 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>45,5; 48,96</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>57,95; 61,48</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>52,55; 56,06</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>74,38; 78,13</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>54,02; 57,45</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>66,19; 69,47</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>57,47; 60,88</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
         <is>
           <t>68,1; 80,06</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>50,4; 52,88</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>62,56; 64,98</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>55,55; 57,95</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
         <is>
           <t>72,33; 78,41</t>
         </is>
@@ -751,12 +1211,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P36B_4_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36B_4_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>50,5; 56,49</t>
+          <t>50,25; 56,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>66,04; 72,21</t>
+          <t>66,48; 72,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>55,45; 62,51</t>
+          <t>55,42; 62,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>75,7; 82,31</t>
+          <t>75,8; 82,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>57,44; 62,84</t>
+          <t>57,28; 62,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>74,85; 79,53</t>
+          <t>74,51; 79,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>61,5; 67,78</t>
+          <t>61,59; 67,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>79,63; 83,9</t>
+          <t>79,83; 84,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>55,1; 59,08</t>
+          <t>55,1; 59,18</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>71,78; 75,59</t>
+          <t>72,13; 76,04</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>59,87; 64,6</t>
+          <t>59,96; 64,64</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>78,98; 82,71</t>
+          <t>78,93; 82,75</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>40,84; 45,74</t>
+          <t>40,78; 45,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>53,65; 58,22</t>
+          <t>53,9; 58,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>48,9; 53,31</t>
+          <t>48,71; 53,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>72,23; 77,3</t>
+          <t>72,37; 77,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>49,63; 54,6</t>
+          <t>49,63; 54,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>58,57; 63,25</t>
+          <t>58,67; 63,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>52,92; 57,27</t>
+          <t>52,94; 57,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>62,16; 79,42</t>
+          <t>63,25; 79,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>45,56; 49,12</t>
+          <t>45,66; 49,29</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>56,65; 59,97</t>
+          <t>56,57; 59,99</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>51,27; 54,54</t>
+          <t>51,46; 54,66</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>68,44; 77,26</t>
+          <t>68,07; 77,45</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>44,29; 53,18</t>
+          <t>43,98; 52,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>50,19; 59,62</t>
+          <t>49,7; 59,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>56,39; 65,35</t>
+          <t>55,97; 65,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>75,13; 82,24</t>
+          <t>75,08; 81,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>51,65; 60,88</t>
+          <t>51,49; 60,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>62,82; 71,76</t>
+          <t>62,35; 71,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>59,64; 67,93</t>
+          <t>59,04; 67,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>75,9; 82,02</t>
+          <t>76,27; 81,84</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>49,09; 55,59</t>
+          <t>49,18; 55,7</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>57,52; 64,53</t>
+          <t>57,67; 64,54</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>59,19; 65,11</t>
+          <t>59,39; 65,17</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>76,54; 81,09</t>
+          <t>76,65; 81,16</t>
         </is>
       </c>
     </row>
@@ -1144,27 +1144,27 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>45,5; 48,96</t>
+          <t>45,8; 49,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>57,95; 61,48</t>
+          <t>57,97; 61,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>52,55; 56,06</t>
+          <t>52,72; 56,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>74,38; 78,13</t>
+          <t>74,45; 78,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>54,02; 57,45</t>
+          <t>54,05; 57,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1174,32 +1174,32 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>57,47; 60,88</t>
+          <t>57,47; 60,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>68,1; 80,06</t>
+          <t>68,99; 80,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>50,4; 52,88</t>
+          <t>50,55; 52,86</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>62,56; 64,98</t>
+          <t>62,76; 65,07</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>55,55; 57,95</t>
+          <t>55,71; 58,08</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>72,33; 78,41</t>
+          <t>71,98; 78,44</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36B_4_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36B_4_R-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>79,02%</t>
+          <t>78,19%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>81,97%</t>
+          <t>81,37%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>80,81%</t>
+          <t>80,08%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>75,8; 82,25</t>
+          <t>74,87; 81,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>79,83; 84,05</t>
+          <t>79,27; 83,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>78,93; 82,75</t>
+          <t>78,09; 81,89</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>74,74%</t>
+          <t>75,92%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>74,99%</t>
+          <t>71,71%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>74,87%</t>
+          <t>73,84%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>72,37; 77,17</t>
+          <t>72,02; 82,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>63,25; 79,35</t>
+          <t>54,41; 79,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>68,07; 77,45</t>
+          <t>62,69; 78,62</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>78,7%</t>
+          <t>77,19%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>79,27%</t>
+          <t>78,59%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>78,99%</t>
+          <t>77,89%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>75,08; 81,93</t>
+          <t>72,85; 80,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>76,27; 81,84</t>
+          <t>75,66; 81,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>76,65; 81,16</t>
+          <t>75,2; 80,18</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>76,22%</t>
+          <t>76,5%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>77,33%</t>
+          <t>74,95%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>76,81%</t>
+          <t>75,7%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>74,45; 78,04</t>
+          <t>74,01; 81,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>68,99; 80,02</t>
+          <t>60,15; 79,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>71,98; 78,44</t>
+          <t>67,77; 78,72</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36B_4_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36B_4_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>50,25; 56,32</t>
+          <t>50,21; 56,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>66,48; 72,44</t>
+          <t>66,37; 72,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>55,42; 62,71</t>
+          <t>55,6; 62,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>74,87; 81,52</t>
+          <t>74,44; 81,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>57,28; 62,61</t>
+          <t>57,45; 62,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>74,51; 79,34</t>
+          <t>74,82; 79,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>61,59; 67,93</t>
+          <t>61,61; 67,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>79,27; 83,48</t>
+          <t>79,16; 83,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>55,1; 59,18</t>
+          <t>55,31; 59,46</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>72,13; 76,04</t>
+          <t>72,08; 75,77</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>59,96; 64,64</t>
+          <t>60,07; 64,6</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>78,09; 81,89</t>
+          <t>78,16; 81,95</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>40,78; 45,65</t>
+          <t>40,79; 45,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>53,9; 58,56</t>
+          <t>53,68; 58,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>48,71; 53,16</t>
+          <t>48,77; 53,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>72,02; 82,7</t>
+          <t>72,3; 82,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>49,63; 54,47</t>
+          <t>49,69; 54,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>58,67; 63,51</t>
+          <t>58,39; 63,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>52,94; 57,68</t>
+          <t>52,9; 57,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>54,41; 79,59</t>
+          <t>51,75; 79,73</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>45,66; 49,29</t>
+          <t>45,98; 49,26</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>56,57; 59,99</t>
+          <t>56,71; 60,05</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>51,46; 54,66</t>
+          <t>51,41; 54,67</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>62,69; 78,62</t>
+          <t>61,77; 78,38</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>43,98; 52,91</t>
+          <t>44,34; 53,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>49,7; 59,23</t>
+          <t>49,99; 59,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>55,97; 65,14</t>
+          <t>56,99; 65,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>72,85; 80,58</t>
+          <t>72,82; 81,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>51,49; 60,8</t>
+          <t>51,85; 61,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>62,35; 71,97</t>
+          <t>62,02; 71,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>59,04; 67,4</t>
+          <t>59,17; 67,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>75,66; 81,23</t>
+          <t>75,38; 81,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>49,18; 55,7</t>
+          <t>48,84; 55,47</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>57,67; 64,54</t>
+          <t>57,5; 64,27</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>59,39; 65,17</t>
+          <t>59,5; 65,26</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>75,2; 80,18</t>
+          <t>75,32; 80,21</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>45,8; 49,27</t>
+          <t>45,44; 49,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>57,97; 61,43</t>
+          <t>57,89; 61,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>52,72; 56,13</t>
+          <t>52,71; 56,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>74,01; 81,55</t>
+          <t>74,03; 81,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>54,05; 57,36</t>
+          <t>54,08; 57,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>66,19; 69,47</t>
+          <t>66,26; 69,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>57,47; 60,83</t>
+          <t>57,52; 61,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>60,15; 79,77</t>
+          <t>58,26; 80,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>50,55; 52,86</t>
+          <t>50,38; 52,89</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>62,76; 65,07</t>
+          <t>62,67; 65,12</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>55,71; 58,08</t>
+          <t>55,56; 58,04</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>67,77; 78,72</t>
+          <t>68,12; 78,9</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que consume frutas a diario</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>561</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>622</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>966</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>568</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1170</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1337</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1588</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1020</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1719</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>550313</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>673454</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>443566</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>402617</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>790206</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1032225</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>643258</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>613522</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1340519</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1705678</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1086824</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>1016139</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>517497; 581107</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>644847; 701205</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>417206; 468236</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>383296; 419169</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>754933; 825239</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1000073; 1060815</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>612122; 673917</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>596885; 630157</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1296853; 1394270</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1663915; 1748961</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1047576; 1126533</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>991856; 1039922</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>716</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1038</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>991</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1514</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>802</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>997</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1041</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>2333</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1518</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>2035</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>2032</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>3847</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>732222</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1101176</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1058183</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1738139</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>826533</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1067867</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1094202</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1604054</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1558755</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2169043</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2152385</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3342195</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>689974; 770634</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1053671; 1143016</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1011278; 1106600</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1655233; 1896400</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>788359; 868728</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1022712; 1105546</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1049292; 1141491</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1157553; 1783334</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1507252; 1614688</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2106682; 2230671</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2085689; 2218141</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2795711; 3547563</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>543</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>813</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1356</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>269125</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>264259</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>333591</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>499098</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>268872</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>309795</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>349345</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>519030</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>537997</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>574054</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>682937</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>1018128</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>244469; 292993</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>240036; 286416</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>311659; 357051</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>470888; 524528</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>247011; 291005</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>284448; 329113</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>324900; 371036</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>497863; 537799</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>501989; 570126</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>539758; 603316</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>652110; 715259</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>984532; 1048393</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1532</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1896</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1750</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2606</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1831</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2242</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1937</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>3363</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>4138</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>3687</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>6922</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1551659</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2038889</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1835340</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2639855</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1885611</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2409887</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2086806</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2736606</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>3437270</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>4448775</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>3922146</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>5376461</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1487611; 1606903</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1976915; 2097866</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1776636; 1892204</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2554627; 2825773</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1826413; 1944171</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2350198; 2464748</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2028247; 2151133</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>2127030; 2921004</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>3350941; 3517571</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>4362512; 4533664</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>3832196; 4003405</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>4837778; 5603676</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>